--- a/8-26 安心百万医疗/安心产品对应关系.xlsx
+++ b/8-26 安心百万医疗/安心产品对应关系.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>产品名称</t>
   </si>
@@ -30,22 +30,10 @@
     <t>安心对应产品</t>
   </si>
   <si>
-    <t>安心对应产品方案编码</t>
-  </si>
-  <si>
-    <t>包含服务项</t>
-  </si>
-  <si>
     <t>安心百万医疗2019</t>
   </si>
   <si>
     <t>PS07000120</t>
-  </si>
-  <si>
-    <t>1、重大疾病绿色通道服务
-2、住院垫付服务
-3、全程就医陪同服务
-4、医疗健康信息咨询服务</t>
   </si>
   <si>
     <t>安心百万医疗险热卖版</t>
@@ -100,12 +88,24 @@
     <t>I20AJ2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Y001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安心对应医疗套餐编号（package_code）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安心对应产品方案号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +116,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -163,7 +171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -179,11 +187,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,110 +465,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="34.875" customWidth="1"/>
-    <col min="3" max="4" width="20.875" customWidth="1"/>
-    <col min="5" max="5" width="25.375" customWidth="1"/>
-    <col min="6" max="6" width="24.625" customWidth="1"/>
+    <col min="1" max="1" width="34.875" customWidth="1"/>
+    <col min="2" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="38.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:5" ht="87" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="5" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F2:F5"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>